--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/134.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/134.xlsx
@@ -479,13 +479,13 @@
         <v>-19.01358041959463</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.432260650040746</v>
+        <v>-9.849892018388966</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.019611441254793</v>
+        <v>-3.061938856342093</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.142950484085488</v>
+        <v>-6.648837065889784</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.50602313042019</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.716442175523252</v>
+        <v>-10.14188964866798</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.012646336142994</v>
+        <v>-3.008208045479649</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.105873082437721</v>
+        <v>-6.616014662665576</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.93679432354223</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.54099540849516</v>
+        <v>-10.96574898958928</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.845627828791095</v>
+        <v>-2.813892086702751</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.992048601531754</v>
+        <v>-6.495225076647812</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.36176240040679</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.27572235166999</v>
+        <v>-11.69331444310968</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.786869573637428</v>
+        <v>-2.784696251365701</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.224148946309874</v>
+        <v>-6.738990663257909</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.75426764757241</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.10623258243488</v>
+        <v>-12.54976052580403</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.61394643770391</v>
+        <v>-2.584881525395278</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.750862198581476</v>
+        <v>-6.247963845178973</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.12576659030991</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.79367012774539</v>
+        <v>-13.23328347256487</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.560582211321035</v>
+        <v>-2.522653809988554</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.849525792796724</v>
+        <v>-6.336140504817998</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.46554151349131</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.34162227858015</v>
+        <v>-13.80435663021812</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.452832558933629</v>
+        <v>-2.430130505806076</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.359389251311025</v>
+        <v>-5.822359264400142</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.77712739246791</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.3423062616818</v>
+        <v>-14.81098451880991</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.243028405894969</v>
+        <v>-2.248147496306084</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.187827714873047</v>
+        <v>-5.615657987134971</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.06807301065415</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.09515295198957</v>
+        <v>-15.55838481113552</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.220575106521409</v>
+        <v>-2.217223476993927</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.808452055428351</v>
+        <v>-5.240877725987721</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.34737704972135</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.78139909774149</v>
+        <v>-16.26467527253812</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.019398781055446</v>
+        <v>-2.008283415942821</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.576129141501921</v>
+        <v>-5.006473135909457</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.64424607614859</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.43333031774523</v>
+        <v>-16.91470810862982</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.089560431984256</v>
+        <v>-2.132385354579542</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.045576661143814</v>
+        <v>-4.484352098581422</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.97658794737555</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.4146900618525</v>
+        <v>-17.88833030175762</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.887847322101782</v>
+        <v>-1.917396649615558</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.395609286566323</v>
+        <v>-3.807532410875551</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.38886781967448</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.00983996443168</v>
+        <v>-18.47819091398875</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.621733174540859</v>
+        <v>-1.66239786716726</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.092024968272379</v>
+        <v>-3.542007416942504</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-10.90744944538872</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.92332921060743</v>
+        <v>-19.40959043045198</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.476578812934642</v>
+        <v>-1.526198640704783</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.500946771876972</v>
+        <v>-2.949619990262925</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.55683601497769</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.83234088921132</v>
+        <v>-20.33213955019421</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.311825273974361</v>
+        <v>-1.353628996947992</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.099104720755874</v>
+        <v>-2.517521627274598</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.34892786013224</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.63073570110545</v>
+        <v>-21.12901565495871</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.111866532672678</v>
+        <v>-1.181949629784438</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.593427615797047</v>
+        <v>-2.0295191311521</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.27329930830423</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.59264028318991</v>
+        <v>-22.08856362253165</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.01888499789074</v>
+        <v>-1.078991760237104</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.231150503863645</v>
+        <v>-1.651727640351253</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.31434315470625</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.43324467944577</v>
+        <v>-22.93458823216399</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.905702039824018</v>
+        <v>-0.9877515017331153</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8678783769142714</v>
+        <v>-1.307675013973534</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.43278964602368</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.103334923491</v>
+        <v>-23.6306536050472</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6733660335947472</v>
+        <v>-0.7781568255399227</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5279498259316958</v>
+        <v>-0.9705220311934037</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.59697266379089</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.72144872525457</v>
+        <v>-24.24092511740858</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3900486000997951</v>
+        <v>-0.5109429245402937</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1765655099626098</v>
+        <v>-0.6041863053790667</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.76132754775725</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.38110440393494</v>
+        <v>-24.91639629792175</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.207528806183292</v>
+        <v>-0.3685641311365226</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.04798600375401812</v>
+        <v>-0.40214588792555</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.89178372877931</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.8214640100164</v>
+        <v>-25.33190671320961</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1354949559481152</v>
+        <v>-0.3058127236161296</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1676573163520519</v>
+        <v>-0.207672821514551</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.9595650622538</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.23989400883796</v>
+        <v>-25.77754251733628</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1675056363961354</v>
+        <v>-0.3401931108785022</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1762982362275912</v>
+        <v>-0.1721403116021064</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.94281677427498</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.50074505065651</v>
+        <v>-26.02904565492584</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1344945132539598</v>
+        <v>-0.03621602349930638</v>
       </c>
       <c r="G25" t="n">
-        <v>0.173247729665469</v>
+        <v>-0.1603310544388695</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.83565919297125</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.50201500403216</v>
+        <v>-26.04200703473915</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1167151659948958</v>
+        <v>-0.07284828685045593</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01413697322997207</v>
+        <v>-0.3250845933991504</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.63476261485196</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.49329553033957</v>
+        <v>-26.06277142704613</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.08206526805103108</v>
+        <v>-0.2672427994444046</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02948115216047503</v>
+        <v>-0.2968968653809141</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.35727587362585</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.56132313590518</v>
+        <v>-26.10659136465738</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09270388258317021</v>
+        <v>-0.06042369145365788</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2607359249320667</v>
+        <v>-0.5968284311820167</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.02168981003635</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.63293803244942</v>
+        <v>-26.20795197325803</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03699613399162579</v>
+        <v>-0.1161052554395189</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.3348907282276032</v>
+        <v>-0.6593441772512586</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.661769327911575</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.39262881378954</v>
+        <v>-25.94347436355232</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.07066187227588767</v>
+        <v>-0.2158816953963132</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.4979815447269848</v>
+        <v>-0.8000733404969721</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.309980466167524</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.94874737824366</v>
+        <v>-25.52217715040841</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.07839942325534778</v>
+        <v>-0.2248891997514207</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.008817017005452</v>
+        <v>-1.321788516436914</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.994180225679917</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.00360412715049</v>
+        <v>-25.59834816834158</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.01092169440909162</v>
+        <v>-0.1400379850341941</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.144898412742353</v>
+        <v>-1.489684208079209</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.742345552851766</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.59816169274792</v>
+        <v>-25.17384334100145</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.06391933631239874</v>
+        <v>-0.1871309983558828</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.639879106279491</v>
+        <v>-1.992677390955483</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.564997359755115</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.98133093666283</v>
+        <v>-24.53757051519641</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1391738930466402</v>
+        <v>-0.2323125354626794</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.689813149317834</v>
+        <v>-2.022580210645986</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.470404496211907</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.63108565104098</v>
+        <v>-24.17953530938372</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3370247735908045</v>
+        <v>-0.4313679078682826</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.802747353630563</v>
+        <v>-2.164828081021339</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.447698631580575</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.86134989006738</v>
+        <v>-23.38510746525063</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4450886412464115</v>
+        <v>-0.5264703957105807</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.98241302552757</v>
+        <v>-2.334098464462016</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.489669964585746</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.07138652120331</v>
+        <v>-22.59133423625962</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3863958476069536</v>
+        <v>-0.4770731370887483</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.13025130921634</v>
+        <v>-2.498707988091037</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.577314059028122</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.68296408049498</v>
+        <v>-22.21783702079086</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4476809172090733</v>
+        <v>-0.5351113155861199</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.395697749332337</v>
+        <v>-2.772035994517752</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.690441548289519</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.03464633607555</v>
+        <v>-21.5603808489879</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3610622416082136</v>
+        <v>-0.4761043066784605</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.568922008231214</v>
+        <v>-2.961730370391522</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.815335821284046</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.65999699795671</v>
+        <v>-21.1647838263223</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5815497137657223</v>
+        <v>-0.6583098853267623</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.777233638745918</v>
+        <v>-3.153519514719967</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.936210532863036</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.06571118736508</v>
+        <v>-20.53397049080226</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3468832776306243</v>
+        <v>-0.4541746994185694</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.67053137058585</v>
+        <v>-3.06616767015997</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.051007202429521</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.53881145949982</v>
+        <v>-20.03592619840015</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1066918896963178</v>
+        <v>-0.207528806183292</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.739344514321962</v>
+        <v>-3.174807599140613</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.154495219379488</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.63161961099093</v>
+        <v>-19.11611336995185</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.09141317228002349</v>
+        <v>-0.1830723844749477</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.693351254438979</v>
+        <v>-3.155051314152449</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.251236864173409</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.30618423925415</v>
+        <v>-18.78233820130488</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.04628400438459373</v>
+        <v>-0.1321826033291585</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.908117390254653</v>
+        <v>-3.387151658930569</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.344213870950242</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.75702759655795</v>
+        <v>-18.2110031975948</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.06986324180254239</v>
+        <v>-0.1595978854797329</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.966090107237816</v>
+        <v>-3.456580140900242</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.439335101686012</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.31348656088596</v>
+        <v>-17.74685487724993</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.003445989486466035</v>
+        <v>-0.08431714413980795</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.826997481847318</v>
+        <v>-3.271271686478451</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.549498540448413</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.64058147172976</v>
+        <v>-17.05952207036215</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.03955456072394653</v>
+        <v>-0.1379432165795179</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.184247149489498</v>
+        <v>-3.651799468573219</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.678597107006897</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.98457854554223</v>
+        <v>-16.40025916076704</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.01083004828919954</v>
+        <v>-0.09082401865214582</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.077479419815222</v>
+        <v>-3.508818429238729</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.840704161946332</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.3850819984196</v>
+        <v>-15.75577746108023</v>
       </c>
       <c r="F49" t="n">
-        <v>0.08872382251928548</v>
+        <v>-0.0005656828612863005</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.341053660624851</v>
+        <v>-3.807885903052277</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.03576337073955</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.68724916465275</v>
+        <v>-15.03559606636256</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1884217086590295</v>
+        <v>0.07310470522910628</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.296304169511831</v>
+        <v>-3.768491163801523</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.26786989695167</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.87229258966383</v>
+        <v>-14.21753661560015</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2109011926382731</v>
+        <v>0.1026147558343568</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.431456011746969</v>
+        <v>-3.941754699608926</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.53109922638777</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.28241888512986</v>
+        <v>-13.63653949239287</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2800154593397451</v>
+        <v>0.1709696689710087</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.390424734641</v>
+        <v>-3.846992611640513</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.81984216453814</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.63207183376996</v>
+        <v>-12.96330709566563</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3420991594152101</v>
+        <v>0.2435795805312214</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.435265871873912</v>
+        <v>-3.90325023695141</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.12907600106894</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.25243432826843</v>
+        <v>-12.57911346877518</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2271880173733804</v>
+        <v>0.1054688778538531</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.599508811023365</v>
+        <v>-4.104007608726437</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.44400865071315</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.7155975425463</v>
+        <v>-11.98532516569154</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03429911960623022</v>
+        <v>-0.04907266488988139</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.045511199629606</v>
+        <v>-4.516794825023219</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.76537023302719</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.29064757690955</v>
+        <v>-11.5551382789181</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05416014301712867</v>
+        <v>-0.06367058255840595</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.146204100785321</v>
+        <v>-4.637505857223933</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.08039327337495</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.52273164603095</v>
+        <v>-10.77932768942594</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001424347170656062</v>
+        <v>-0.1075559816838717</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.541814215753758</v>
+        <v>-5.06072763888557</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.38620584187263</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.25589742181373</v>
+        <v>-10.52198538476897</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1675972825160275</v>
+        <v>-0.270568244366203</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.566912160301346</v>
+        <v>-5.069538758698052</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.67082556566639</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.662030564913039</v>
+        <v>-9.90354427543436</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.1076214431980804</v>
+        <v>-0.2207782166591188</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.863793219540327</v>
+        <v>-5.379944166772535</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.92878173093423</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.316118831531794</v>
+        <v>-9.588150699977177</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.2178324485197304</v>
+        <v>-0.323618255480877</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.756711274597849</v>
+        <v>-5.254834120817001</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.15429212957753</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.765548220128688</v>
+        <v>-9.021398002261698</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2430220391872114</v>
+        <v>-0.3501694456438975</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.134502765398697</v>
+        <v>-5.626249660133928</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.34055646810863</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.286160459276045</v>
+        <v>-8.54627833213546</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2010481162766376</v>
+        <v>-0.3006543562964895</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.150030236568983</v>
+        <v>-5.654358834335113</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.49087198581624</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.839437994013511</v>
+        <v>-8.095156853118104</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2178193562168887</v>
+        <v>-0.3132884285387552</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.132080689372977</v>
+        <v>-5.63627836411069</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.59860549857101</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.481010019115576</v>
+        <v>-7.750881657592076</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3749531749232849</v>
+        <v>-0.4635356959504035</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.32339851079912</v>
+        <v>-5.810392899602805</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.66817656291721</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.129102011032821</v>
+        <v>-7.396145712095508</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3101724604624244</v>
+        <v>-0.3872599395945074</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.584511398674505</v>
+        <v>-6.051749502490025</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-13.69376969520212</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.880557733885493</v>
+        <v>-7.141094560435842</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4270605402333547</v>
+        <v>-0.5093063866850779</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.548965796459219</v>
+        <v>-6.000401490744775</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-13.68026482092304</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.714442595429673</v>
+        <v>-6.97564712942495</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5164940609451855</v>
+        <v>-0.6054038895433472</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.64257576177756</v>
+        <v>-6.083720906029519</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-13.62568786517858</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.439294758907958</v>
+        <v>-6.693992418390897</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4634309575276697</v>
+        <v>-0.5557840617732054</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.61997844707274</v>
+        <v>-6.043331151762795</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.53624140009997</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.31559868165933</v>
+        <v>-6.585889273826765</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7517758353138446</v>
+        <v>-0.8537910590565742</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.661088277995761</v>
+        <v>-6.060023837885995</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-13.41832167589177</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.122369384018295</v>
+        <v>-6.400541542496449</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6694907119535963</v>
+        <v>-0.7540408037054632</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.501047968058501</v>
+        <v>-5.887205440375212</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-13.27344884339131</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.028065526649343</v>
+        <v>-6.325326262670733</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7386966247749603</v>
+        <v>-0.8249618081990934</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.421067089998396</v>
+        <v>-5.790309307043596</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-13.11542822542353</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.032255063558694</v>
+        <v>-6.343393640592314</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8631520555884084</v>
+        <v>-0.959236466143836</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.25603861267844</v>
+        <v>-5.592602441830691</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.94866821515103</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.087111812465527</v>
+        <v>-6.401183065335694</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.9118161452511041</v>
+        <v>-1.015022768552431</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.07514226431431</v>
+        <v>-5.422585797128037</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.78946751361018</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.305831823739402</v>
+        <v>-6.618345092571404</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.791812097403843</v>
+        <v>-0.8942855517460329</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.935997269712446</v>
+        <v>-5.269340392365633</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.64078077069629</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.487212587308675</v>
+        <v>-6.790103013552008</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.127105973180448</v>
+        <v>-1.244622483487781</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.767538609047956</v>
+        <v>-5.099703424445388</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-12.51648848904338</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.963916426078764</v>
+        <v>-7.257079271310693</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.057703675816458</v>
+        <v>-1.18211982972138</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.560339824274799</v>
+        <v>-4.863780127237485</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.42122232681274</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.407824046230328</v>
+        <v>-7.678559776694381</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.119420791412354</v>
+        <v>-1.252294572953032</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.487219312903759</v>
+        <v>-4.802665257572308</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.35651612395469</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.006325578336993</v>
+        <v>-8.280439122934212</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.179488276850194</v>
+        <v>-1.298104540596232</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.116432204123235</v>
+        <v>-4.448675573337718</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.32855713980774</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.419269902267875</v>
+        <v>-8.690764986296749</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.177288769972784</v>
+        <v>-1.321814701042598</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.966590798099681</v>
+        <v>-4.311468239556429</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.33058688280438</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.874646379708791</v>
+        <v>-9.136610267268887</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.316014810883713</v>
+        <v>-1.43151510655342</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.607324915819876</v>
+        <v>-3.957858232104249</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.36390807606974</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.772739077742674</v>
+        <v>-10.01714618719202</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.284855130120405</v>
+        <v>-1.419810587812917</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.606041870141386</v>
+        <v>-3.970466119740832</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.41660017113232</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.5402229626275</v>
+        <v>-10.75946666601504</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.366328530704466</v>
+        <v>-1.505525894517698</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.408583758682474</v>
+        <v>-3.76300548891084</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-12.48731528840084</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.34131478890703</v>
+        <v>-11.54140445323713</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.497173005304677</v>
+        <v>-1.64086102899262</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.068485007762956</v>
+        <v>-3.438421116858768</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-12.56700386964954</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.52657405747133</v>
+        <v>-12.73459765732352</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.566365825823199</v>
+        <v>-1.706021420235891</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.924796984075012</v>
+        <v>-3.290661386987047</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-12.65169650060136</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.41359066730112</v>
+        <v>-13.60583804222902</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.637404661042404</v>
+        <v>-1.765395013623119</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.595067337006141</v>
+        <v>-2.957174249002601</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-12.74243930135656</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.5537862294842</v>
+        <v>-14.7150310312829</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.82623494492862</v>
+        <v>-1.95055945271365</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.337751216954857</v>
+        <v>-2.705029588573798</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-12.83193573857435</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.61901526559556</v>
+        <v>-15.76407798108188</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.861256855030237</v>
+        <v>-1.981457287420124</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.915445896492141</v>
+        <v>-2.27329781006504</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-12.92345042538184</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.01630437868161</v>
+        <v>-17.15472929662718</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.826575344802504</v>
+        <v>-1.916454003810954</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.625372834730858</v>
+        <v>-2.005259093986382</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-13.00932903850407</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.65509410998615</v>
+        <v>-18.77406386590891</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.047717432102099</v>
+        <v>-2.139965797924901</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.444987086177556</v>
+        <v>-1.824598407073404</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-13.09199688765771</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.23799280045936</v>
+        <v>-20.34779794439291</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.268951165521587</v>
+        <v>-2.347282413423634</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.160098576341597</v>
+        <v>-1.540573989224999</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-13.16285089100686</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.97544612597914</v>
+        <v>-22.02985773658935</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.445566330856471</v>
+        <v>-2.496953619510246</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.302333354414109</v>
+        <v>-1.676982692532943</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-13.22073920475452</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.64035500145292</v>
+        <v>-23.66907951388767</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.546219955103661</v>
+        <v>-2.611943315369126</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.100004906298075</v>
+        <v>-1.475780182461296</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-13.25961513820651</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.74201000742384</v>
+        <v>-25.77073451985859</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.679381767306857</v>
+        <v>-2.714927369522143</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.076491130394335</v>
+        <v>-1.4471342238436</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-13.2673091998411</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.96408801493295</v>
+        <v>-27.98045339348511</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.535104589991036</v>
+        <v>-2.559718119333481</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.184764474895409</v>
+        <v>-1.536201160075862</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-13.24123666676034</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.23455517374509</v>
+        <v>-30.23608697317757</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.990834559608679</v>
+        <v>-2.994997911912348</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.533844545564351</v>
+        <v>-1.89609547289207</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-13.16678572164077</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.45555961242118</v>
+        <v>-32.46670116213949</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.024835270088641</v>
+        <v>-2.998441187559721</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.784614514194772</v>
+        <v>-2.158190283480584</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-13.046753873374</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.68654038586267</v>
+        <v>-34.71065640769713</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.328511234502477</v>
+        <v>-3.268561579790214</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.975172982056095</v>
+        <v>-2.330851573357267</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.86923641627442</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.19629556371303</v>
+        <v>-37.21077565065598</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.576832942501496</v>
+        <v>-3.521609609115095</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.407533191101257</v>
+        <v>-2.785219943479371</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.6508890357982</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.68012798193678</v>
+        <v>-39.65465036060678</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.507744860405707</v>
+        <v>-3.461489754465889</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.878293124381201</v>
+        <v>-3.264241119852444</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.38516072132563</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.24714889241685</v>
+        <v>-42.22563823884789</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.685368133059405</v>
+        <v>-3.639099934816745</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.183369965199102</v>
+        <v>-3.54910344508272</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.10338760768072</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.5410905502242</v>
+        <v>-44.52640098643578</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.901836268244503</v>
+        <v>-3.844151581923859</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.730549670166202</v>
+        <v>-4.05692768770759</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.79335556706055</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.85910895295748</v>
+        <v>-46.8471294958573</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.03651678757734</v>
+        <v>-3.97053158125504</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.033112788838491</v>
+        <v>-4.365316881144448</v>
       </c>
     </row>
   </sheetData>
